--- a/docentes/Rivera Cruz Ezequiel - Estadisticos 20211.xlsx
+++ b/docentes/Rivera Cruz Ezequiel - Estadisticos 20211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="43">
   <si>
     <t>Mat</t>
   </si>
@@ -74,6 +74,78 @@
   </si>
   <si>
     <t>Reprobadas</t>
+  </si>
+  <si>
+    <t>CARRERA</t>
+  </si>
+  <si>
+    <t>CANUTO</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>TEXCAHUA</t>
+  </si>
+  <si>
+    <t>BAUTISTA</t>
+  </si>
+  <si>
+    <t>PARRA</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>CASTAÑEDA</t>
+  </si>
+  <si>
+    <t>MEDINA</t>
+  </si>
+  <si>
+    <t>OFICIAL</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>DIAZ</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>BAROJAS</t>
+  </si>
+  <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
+    <t>PAUL ARAVIER</t>
+  </si>
+  <si>
+    <t>ISRAEL</t>
+  </si>
+  <si>
+    <t>SAID ANDRES</t>
+  </si>
+  <si>
+    <t>OSVALDO</t>
+  </si>
+  <si>
+    <t>DINA BERENICE</t>
+  </si>
+  <si>
+    <t>SUEMI</t>
+  </si>
+  <si>
+    <t>DIEGO IVAN</t>
+  </si>
+  <si>
+    <t>JESSICA</t>
   </si>
 </sst>
 </file>
@@ -477,19 +549,19 @@
         <v>35</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G2">
-        <v>42.86</v>
+        <v>51.43</v>
       </c>
       <c r="H2">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -503,19 +575,19 @@
         <v>39</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G3">
-        <v>74.36</v>
+        <v>87.18000000000001</v>
       </c>
       <c r="H3">
-        <v>8.5</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -529,19 +601,19 @@
         <v>35</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G4">
-        <v>60</v>
+        <v>85.70999999999999</v>
       </c>
       <c r="H4">
-        <v>8.4</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -555,19 +627,19 @@
         <v>33</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G5">
-        <v>30.3</v>
+        <v>48.48</v>
       </c>
       <c r="H5">
-        <v>7.7</v>
+        <v>7.2</v>
       </c>
     </row>
   </sheetData>
@@ -626,7 +698,7 @@
         <v>35</v>
       </c>
       <c r="E2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -649,7 +721,7 @@
         <v>39</v>
       </c>
       <c r="E3">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -672,7 +744,7 @@
         <v>35</v>
       </c>
       <c r="E4">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -695,7 +767,7 @@
         <v>33</v>
       </c>
       <c r="E5">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -757,19 +829,19 @@
         <v>35</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G2">
-        <v>42.86</v>
+        <v>51.43</v>
       </c>
       <c r="H2">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -783,19 +855,19 @@
         <v>39</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G3">
-        <v>74.36</v>
+        <v>87.18000000000001</v>
       </c>
       <c r="H3">
-        <v>8.5</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -809,19 +881,19 @@
         <v>35</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G4">
-        <v>60</v>
+        <v>85.70999999999999</v>
       </c>
       <c r="H4">
-        <v>8.4</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -835,19 +907,19 @@
         <v>33</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G5">
-        <v>30.3</v>
+        <v>48.48</v>
       </c>
       <c r="H5">
-        <v>7.7</v>
+        <v>7.2</v>
       </c>
     </row>
   </sheetData>
@@ -857,7 +929,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -890,6 +962,190 @@
         <v>18</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>20330051920072</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>20330051920073</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>20330051920082</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>20330051920070</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>20330051920158</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>20330051920306</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>20330051920090</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>20330051920226</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docentes/Rivera Cruz Ezequiel - Estadisticos 20211.xlsx
+++ b/docentes/Rivera Cruz Ezequiel - Estadisticos 20211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="42">
   <si>
     <t>Mat</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>COCOTLE</t>
+  </si>
+  <si>
     <t>CARRERA</t>
   </si>
   <si>
@@ -88,9 +91,6 @@
     <t>TEXCAHUA</t>
   </si>
   <si>
-    <t>BAUTISTA</t>
-  </si>
-  <si>
     <t>PARRA</t>
   </si>
   <si>
@@ -112,9 +112,6 @@
     <t>MARTINEZ</t>
   </si>
   <si>
-    <t>DIAZ</t>
-  </si>
-  <si>
     <t>FLORES</t>
   </si>
   <si>
@@ -124,6 +121,9 @@
     <t>CRUZ</t>
   </si>
   <si>
+    <t>MARIANA</t>
+  </si>
+  <si>
     <t>PAUL ARAVIER</t>
   </si>
   <si>
@@ -134,9 +134,6 @@
   </si>
   <si>
     <t>OSVALDO</t>
-  </si>
-  <si>
-    <t>DINA BERENICE</t>
   </si>
   <si>
     <t>SUEMI</t>
@@ -546,7 +543,7 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2">
         <v>17</v>
@@ -555,10 +552,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2">
-        <v>51.43</v>
+        <v>52.78</v>
       </c>
       <c r="H2">
         <v>6.8</v>
@@ -598,19 +595,19 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G4">
-        <v>85.70999999999999</v>
+        <v>88.89</v>
       </c>
       <c r="H4">
         <v>8.1</v>
@@ -692,13 +689,13 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -738,13 +735,13 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E4">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -826,7 +823,7 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2">
         <v>17</v>
@@ -835,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2">
-        <v>51.43</v>
+        <v>52.78</v>
       </c>
       <c r="H2">
         <v>6.8</v>
@@ -878,19 +875,19 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G4">
-        <v>85.70999999999999</v>
+        <v>88.89</v>
       </c>
       <c r="H4">
         <v>8.1</v>
@@ -964,22 +961,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>20330051920072</v>
+        <v>20330051920009</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G2">
         <v>6</v>
@@ -987,16 +984,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>20330051920073</v>
+        <v>20330051920072</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -1010,16 +1007,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>20330051920082</v>
+        <v>20330051920073</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -1033,16 +1030,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>20330051920070</v>
+        <v>20330051920082</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -1056,22 +1053,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>20330051920158</v>
+        <v>20330051920070</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -1085,10 +1082,10 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -1108,10 +1105,10 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -1131,10 +1128,10 @@
         <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>

--- a/docentes/Rivera Cruz Ezequiel - Estadisticos 20211.xlsx
+++ b/docentes/Rivera Cruz Ezequiel - Estadisticos 20211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="44">
   <si>
     <t>Mat</t>
   </si>
@@ -76,30 +76,30 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>CARRERA</t>
+  </si>
+  <si>
+    <t>CANUTO</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>TEXCAHUA</t>
+  </si>
+  <si>
     <t>COCOTLE</t>
   </si>
   <si>
-    <t>CARRERA</t>
-  </si>
-  <si>
-    <t>CANUTO</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>TEXCAHUA</t>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
   </si>
   <si>
     <t>PARRA</t>
   </si>
   <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
     <t>CASTAÑEDA</t>
   </si>
   <si>
@@ -112,37 +112,43 @@
     <t>MARTINEZ</t>
   </si>
   <si>
+    <t>TINOCO</t>
+  </si>
+  <si>
+    <t>BAROJAS</t>
+  </si>
+  <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
     <t>FLORES</t>
   </si>
   <si>
-    <t>BAROJAS</t>
-  </si>
-  <si>
-    <t>CRUZ</t>
+    <t>PAUL ARAVIER</t>
+  </si>
+  <si>
+    <t>ISRAEL</t>
+  </si>
+  <si>
+    <t>SAID ANDRES</t>
+  </si>
+  <si>
+    <t>OSVALDO</t>
+  </si>
+  <si>
+    <t>ANGELES NAHOMI</t>
   </si>
   <si>
     <t>MARIANA</t>
   </si>
   <si>
-    <t>PAUL ARAVIER</t>
-  </si>
-  <si>
-    <t>ISRAEL</t>
-  </si>
-  <si>
-    <t>SAID ANDRES</t>
-  </si>
-  <si>
-    <t>OSVALDO</t>
+    <t>DIEGO IVAN</t>
+  </si>
+  <si>
+    <t>JESSICA</t>
   </si>
   <si>
     <t>SUEMI</t>
-  </si>
-  <si>
-    <t>DIEGO IVAN</t>
-  </si>
-  <si>
-    <t>JESSICA</t>
   </si>
 </sst>
 </file>
@@ -926,7 +932,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -961,22 +967,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>20330051920009</v>
+        <v>20330051920072</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G2">
         <v>6</v>
@@ -984,16 +990,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>20330051920072</v>
+        <v>20330051920073</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -1007,16 +1013,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>20330051920073</v>
+        <v>20330051920082</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -1030,16 +1036,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>20330051920082</v>
+        <v>20330051920070</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -1053,22 +1059,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>20330051920070</v>
+        <v>20330051920162</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -1076,22 +1082,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>20330051920306</v>
+        <v>20330051920009</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -1102,13 +1108,13 @@
         <v>20330051920090</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
         <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -1125,13 +1131,13 @@
         <v>20330051920226</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
         <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -1140,6 +1146,29 @@
         <v>10</v>
       </c>
       <c r="G9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>20330051920306</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10">
         <v>6</v>
       </c>
     </row>

--- a/docentes/Rivera Cruz Ezequiel - Estadisticos 20211.xlsx
+++ b/docentes/Rivera Cruz Ezequiel - Estadisticos 20211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="46">
   <si>
     <t>Mat</t>
   </si>
@@ -106,6 +106,9 @@
     <t>MEDINA</t>
   </si>
   <si>
+    <t>MENDEZ</t>
+  </si>
+  <si>
     <t>OFICIAL</t>
   </si>
   <si>
@@ -128,6 +131,9 @@
   </si>
   <si>
     <t>ISRAEL</t>
+  </si>
+  <si>
+    <t>CRISTIAN JAHIR</t>
   </si>
   <si>
     <t>SAID ANDRES</t>
@@ -932,7 +938,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -976,7 +982,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -999,7 +1005,7 @@
         <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -1013,7 +1019,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>20330051920082</v>
+        <v>20330051920081</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
@@ -1022,7 +1028,7 @@
         <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -1036,16 +1042,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>20330051920070</v>
+        <v>20330051920082</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
         <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -1059,22 +1065,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>20330051920162</v>
+        <v>20330051920070</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
         <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -1082,22 +1088,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>20330051920009</v>
+        <v>20330051920162</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -1105,22 +1111,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>20330051920090</v>
+        <v>20330051920009</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G8">
         <v>6</v>
@@ -1128,22 +1134,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>20330051920226</v>
+        <v>20330051920090</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
         <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G9">
         <v>6</v>
@@ -1151,24 +1157,47 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>20330051920306</v>
+        <v>20330051920226</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
         <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
       </c>
       <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>20330051920306</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G10">
+      <c r="G11">
         <v>6</v>
       </c>
     </row>
